--- a/Excel/File/LocalizationData.xlsx
+++ b/Excel/File/LocalizationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\workspace_unity\Mojiex\Assets\Mojiex\Excel\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Nonogram\Assets\Mojiex\Excel\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7539848C-1316-44D5-AFF2-030E2DB878F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FEC7D-C397-410D-8E3B-E830F9FDCD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,15 +100,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試</t>
+    <t>连续通关关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关简单关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关任意关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关中等关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_ClearMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_ContinueClearMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_ClearLevel_0_Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_ClearLevel_1_Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_PromptUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_LostHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}小时{1}分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_New_Beginning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_fledgling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Puzzle-nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Jigsaw-Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Jigsaw-Master2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Liver-emperor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Liver-spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_One-life-customs-clearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Harmless-god</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Need-prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_More-tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Full-Blood-Revival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Passing-through-customs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Lost-Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve_Full-achievements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初出茅庐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图新星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一命通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤大神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有很多提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满血归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一心通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷失之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Level0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Level2</t>
+  </si>
+  <si>
+    <t>Main_Level3</t>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,16 +750,250 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
